--- a/Nomenklatur.xlsx
+++ b/Nomenklatur.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3cb3f6eeceb65200/Documents/Albstadt/5Semester/Extraktion_aus_Datenblättern_mit_KI/Projekt_Extraktion/Datasheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3cb3f6eeceb65200/Documents/Albstadt/5Semester/Extraktion_aus_Datenblättern_mit_KI/Projekt_Extraktion/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789F4EDB-6598-40AE-8A6B-E09ED989FE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E7D69AD0-A36C-466A-994B-35C54860F974}"/>
+    <workbookView xWindow="25800" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E7D69AD0-A36C-466A-994B-35C54860F974}"/>
   </bookViews>
   <sheets>
     <sheet name="Nomenklatur" sheetId="1" r:id="rId1"/>
@@ -1711,32 +1711,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2094,28 +2094,28 @@
       <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="43" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="43" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="43" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="42"/>
@@ -2154,57 +2154,57 @@
       <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="45"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="44"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
@@ -2223,32 +2223,32 @@
       <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="42"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="42"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="43"/>
+      <c r="B26" s="48"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
@@ -2399,10 +2399,10 @@
       <c r="I44" s="42"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="43"/>
+      <c r="B46" s="48"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
@@ -2419,10 +2419,10 @@
       <c r="A49" s="2"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="44" t="s">
+      <c r="A50" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="44"/>
+      <c r="B50" s="50"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
@@ -2438,10 +2438,10 @@
       <c r="A53" s="2"/>
     </row>
     <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="45" t="s">
+      <c r="A54" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B54" s="45"/>
+      <c r="B54" s="51"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
@@ -2553,6 +2553,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="A39:C39"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
@@ -2565,26 +2585,6 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A33:O33"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A54:B54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2594,8 +2594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAF21A4-D0DE-4289-8CD9-FEB7902003D7}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="106.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3052,7 +3052,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="217.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3505,8 +3505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5773612-D5A6-4451-83C9-3FC293BA9711}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="230.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
